--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1544,10 +1556,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1591,28 +1603,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1637,28 +1649,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1948,10 +1960,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1995,28 +2007,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2041,28 +2053,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2267,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2313,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2486,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2532,28 +2544,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2670,10 +2682,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2717,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2763,28 +2775,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2913,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2948,28 +2960,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3006,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3115,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3162,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3208,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3392,10 +3404,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3439,28 +3451,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3485,28 +3497,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3837,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3872,28 +3884,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3930,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4056,10 +4068,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4103,28 +4115,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4149,28 +4161,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4241,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4288,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4334,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4472,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4507,28 +4519,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4565,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4703,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4796,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4876,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4923,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4969,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5124,10 +5136,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5171,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5217,28 +5229,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5309,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5344,28 +5356,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5402,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5586,10 +5598,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5633,28 +5645,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5679,28 +5691,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5788,10 +5800,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5835,28 +5847,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5881,28 +5893,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5961,10 +5973,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6008,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6054,28 +6066,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6279,10 +6291,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6326,28 +6338,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6372,28 +6384,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6510,10 +6522,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6557,28 +6569,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6603,28 +6615,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6712,10 +6724,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6759,28 +6771,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6805,28 +6817,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6885,10 +6897,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6932,28 +6944,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6978,28 +6990,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7215,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7250,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7296,28 +7308,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7376,10 +7388,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7423,28 +7435,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7469,28 +7481,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7809,10 +7821,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7856,28 +7868,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7902,28 +7914,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7982,10 +7994,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8029,28 +8041,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8075,28 +8087,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8254,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8289,28 +8301,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8347,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8427,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8462,28 +8474,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8520,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
